--- a/src/main/resources/score_template.xlsx
+++ b/src/main/resources/score_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panchaohui/code/douson/mp-server/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00AA0EB-0C2A-7F4A-A9F3-3979E5BE0B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4ED617-FA54-8D47-9BCA-481D80AE8E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27700" yWindow="36400" windowWidth="16280" windowHeight="13720" xr2:uid="{85A6A10B-93CC-884C-908B-7E5C4DDCFCAE}"/>
+    <workbookView xWindow="25880" yWindow="34720" windowWidth="16280" windowHeight="13720" xr2:uid="{85A6A10B-93CC-884C-908B-7E5C4DDCFCAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -688,7 +688,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
